--- a/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_7_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.91701926426262</v>
+        <v>89.97317207769898</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7410504062452988</v>
+        <v>0.6778547495146879</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.8961505722951</v>
+        <v>88.97709717120775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6239397484516128</v>
+        <v>0.7645732164867767</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.91491553049167</v>
+        <v>87.8631926576553</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7902579962182921</v>
+        <v>0.7951519141378024</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.07637665273951</v>
+        <v>87.01405349475063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7145510317231341</v>
+        <v>0.7775990216240335</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.12932993027846</v>
+        <v>86.00356373077611</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8259520594093681</v>
+        <v>0.8928443323291738</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.11792577969356</v>
+        <v>85.0771592179955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8553035480139133</v>
+        <v>0.74305141295371</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.01802634125768</v>
+        <v>83.89891828693679</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7705334681915079</v>
+        <v>0.7663182223919015</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.96657903110942</v>
+        <v>82.93378098657398</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7139878577596037</v>
+        <v>0.8423984016952347</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.88559448073418</v>
+        <v>82.01874896507023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8147472739192375</v>
+        <v>0.776774463891784</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.99362661406055</v>
+        <v>80.95691879715974</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8812054297543968</v>
+        <v>0.8759976442550653</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.99413531583222</v>
+        <v>79.90511011803392</v>
       </c>
       <c r="D12" t="n">
-        <v>0.819304011322454</v>
+        <v>0.8776259539740745</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.94343621932178</v>
+        <v>78.88394177435997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8081829323328458</v>
+        <v>0.8368738441006062</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.04465393670962</v>
+        <v>77.95356421981866</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9648272183142931</v>
+        <v>0.7534314325609323</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.93051206336284</v>
+        <v>77.18623402185803</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9388984746863643</v>
+        <v>0.9542732611845181</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.13326626091794</v>
+        <v>75.90249122282316</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8432760147113915</v>
+        <v>0.9197898768223858</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.99211539002455</v>
+        <v>74.90963486605953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9235315131450829</v>
+        <v>0.9526590880286804</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.0031112673143</v>
+        <v>74.01083806397595</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9929505556197555</v>
+        <v>0.9658357328038122</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.04056229827417</v>
+        <v>73.13777995948098</v>
       </c>
       <c r="D19" t="n">
-        <v>1.012560128660077</v>
+        <v>0.9431076995742523</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.08998880687744</v>
+        <v>71.78461574045218</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9760011046292969</v>
+        <v>0.9070445990957478</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.92001035591392</v>
+        <v>71.00076299793405</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9907288627361562</v>
+        <v>1.093770333522099</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.01336015671858</v>
+        <v>70.21954443341723</v>
       </c>
       <c r="D22" t="n">
-        <v>1.071793702088656</v>
+        <v>0.9495017411537581</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.12768868757506</v>
+        <v>68.94667971895871</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9670332582778275</v>
+        <v>0.9989017295762981</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.03329351784754</v>
+        <v>68.0558124603903</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9675096580490118</v>
+        <v>1.054161585097981</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.96996439354608</v>
+        <v>67.01908467118528</v>
       </c>
       <c r="D25" t="n">
-        <v>1.054930398145597</v>
+        <v>1.132422018500482</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.02410644491965</v>
+        <v>65.89776141273347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8777113029998421</v>
+        <v>0.9444880412437932</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98329901086689</v>
+        <v>65.12384284075605</v>
       </c>
       <c r="D27" t="n">
-        <v>1.16960428746993</v>
+        <v>1.026567608798108</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.79522170973405</v>
+        <v>64.0962635900939</v>
       </c>
       <c r="D28" t="n">
-        <v>1.140976541469759</v>
+        <v>1.146123450526166</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.83235349828419</v>
+        <v>62.96902166420309</v>
       </c>
       <c r="D29" t="n">
-        <v>1.334187448792544</v>
+        <v>1.108925159721707</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.17730005910558</v>
+        <v>61.98074805458958</v>
       </c>
       <c r="D30" t="n">
-        <v>1.068518833520044</v>
+        <v>1.135472124456685</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.07875193513748</v>
+        <v>60.99894589497865</v>
       </c>
       <c r="D31" t="n">
-        <v>1.164967031447237</v>
+        <v>1.059845050761387</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.1605361703696</v>
+        <v>60.15517191729668</v>
       </c>
       <c r="D32" t="n">
-        <v>1.157995232092173</v>
+        <v>1.281714511420061</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.84622448292353</v>
+        <v>58.77769531321827</v>
       </c>
       <c r="D33" t="n">
-        <v>1.057249244163161</v>
+        <v>1.172992308701799</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.21170679946369</v>
+        <v>58.00295017387169</v>
       </c>
       <c r="D34" t="n">
-        <v>1.121510747436024</v>
+        <v>1.322301623418915</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.97711084873902</v>
+        <v>56.92252939025538</v>
       </c>
       <c r="D35" t="n">
-        <v>1.337952003995481</v>
+        <v>1.32043279328549</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.06677081996828</v>
+        <v>55.99746397817329</v>
       </c>
       <c r="D36" t="n">
-        <v>1.29245812987534</v>
+        <v>1.254394281367332</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.1373911154051</v>
+        <v>55.11393693303413</v>
       </c>
       <c r="D37" t="n">
-        <v>1.272668017760568</v>
+        <v>1.265539234138011</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9423609536982</v>
+        <v>54.00038220264669</v>
       </c>
       <c r="D38" t="n">
-        <v>1.208691320008513</v>
+        <v>1.236446054676784</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.00778454462148</v>
+        <v>52.82896377294913</v>
       </c>
       <c r="D39" t="n">
-        <v>1.411548179125951</v>
+        <v>1.289091605667788</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.96405911062863</v>
+        <v>52.06953216728691</v>
       </c>
       <c r="D40" t="n">
-        <v>1.433082788506179</v>
+        <v>1.201725767296896</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.8275130889548</v>
+        <v>51.11741148988025</v>
       </c>
       <c r="D41" t="n">
-        <v>1.356359135579416</v>
+        <v>1.24646517838735</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.97556066176734</v>
+        <v>50.12316680204797</v>
       </c>
       <c r="D42" t="n">
-        <v>1.338460356359916</v>
+        <v>1.417604443448035</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.003094169931</v>
+        <v>49.08433249161894</v>
       </c>
       <c r="D43" t="n">
-        <v>1.498673075984044</v>
+        <v>1.210688594499386</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.00410466058795</v>
+        <v>48.01575756580081</v>
       </c>
       <c r="D44" t="n">
-        <v>1.482668849122273</v>
+        <v>1.211596944025324</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.26299534618485</v>
+        <v>47.14708355803887</v>
       </c>
       <c r="D45" t="n">
-        <v>1.424399643778533</v>
+        <v>1.295957647823601</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.15625590107378</v>
+        <v>45.99561267030931</v>
       </c>
       <c r="D46" t="n">
-        <v>1.455414663947526</v>
+        <v>1.387957934413868</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.04550037584029</v>
+        <v>44.69122004980569</v>
       </c>
       <c r="D47" t="n">
-        <v>1.497971419450973</v>
+        <v>1.471125362261153</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.89182876608428</v>
+        <v>44.19322024760333</v>
       </c>
       <c r="D48" t="n">
-        <v>1.329876042241402</v>
+        <v>1.613587205240541</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.20003688077234</v>
+        <v>43.05599618630521</v>
       </c>
       <c r="D49" t="n">
-        <v>1.348442646587047</v>
+        <v>1.564233529775296</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.88427763906198</v>
+        <v>42.30033088228151</v>
       </c>
       <c r="D50" t="n">
-        <v>1.46220406995563</v>
+        <v>1.354077093113554</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.91769067718494</v>
+        <v>41.21148445617737</v>
       </c>
       <c r="D51" t="n">
-        <v>1.534502184256781</v>
+        <v>1.287759455827313</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.87634676090013</v>
+        <v>39.87142093087847</v>
       </c>
       <c r="D52" t="n">
-        <v>1.432986130369921</v>
+        <v>1.49467151275136</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.02251933027553</v>
+        <v>38.81796739304266</v>
       </c>
       <c r="D53" t="n">
-        <v>1.420550478534955</v>
+        <v>1.461469537331951</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.94436437335845</v>
+        <v>37.77753954615655</v>
       </c>
       <c r="D54" t="n">
-        <v>1.437010365340455</v>
+        <v>1.590479291616174</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.96619405635567</v>
+        <v>37.13792838571869</v>
       </c>
       <c r="D55" t="n">
-        <v>1.453535807222929</v>
+        <v>1.311994780111006</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.10782943042582</v>
+        <v>36.23353487007963</v>
       </c>
       <c r="D56" t="n">
-        <v>1.705380880718468</v>
+        <v>1.528777692973292</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.872885196537</v>
+        <v>34.71726708129801</v>
       </c>
       <c r="D57" t="n">
-        <v>1.407574668369207</v>
+        <v>1.364828552296797</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.96419009150503</v>
+        <v>33.86697424471672</v>
       </c>
       <c r="D58" t="n">
-        <v>1.43993919250044</v>
+        <v>1.621871010617098</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.98406207387367</v>
+        <v>33.08012422285396</v>
       </c>
       <c r="D59" t="n">
-        <v>1.468793292214942</v>
+        <v>1.527688043882756</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99206616676904</v>
+        <v>31.80260293880777</v>
       </c>
       <c r="D60" t="n">
-        <v>1.71563568813111</v>
+        <v>1.589545828666912</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.83019899887284</v>
+        <v>30.56024323784899</v>
       </c>
       <c r="D61" t="n">
-        <v>1.696617342486092</v>
+        <v>1.573387264014435</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.11287397974466</v>
+        <v>29.90433747917906</v>
       </c>
       <c r="D62" t="n">
-        <v>1.622516090581785</v>
+        <v>1.863359927844868</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.55948776852808</v>
+        <v>28.91895162084043</v>
       </c>
       <c r="D63" t="n">
-        <v>1.556084266398403</v>
+        <v>1.674546750823648</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13747127518871</v>
+        <v>27.66680390430471</v>
       </c>
       <c r="D64" t="n">
-        <v>1.570405056712472</v>
+        <v>1.768825197359672</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.85885346233621</v>
+        <v>27.0250079217789</v>
       </c>
       <c r="D65" t="n">
-        <v>1.849777543422689</v>
+        <v>1.728160529557538</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.9751050648525</v>
+        <v>25.75513654397398</v>
       </c>
       <c r="D66" t="n">
-        <v>1.641727654125489</v>
+        <v>1.717927895251162</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.88789639660764</v>
+        <v>24.77884859833278</v>
       </c>
       <c r="D67" t="n">
-        <v>1.83381400768966</v>
+        <v>1.705278808146559</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10252918655115</v>
+        <v>24.3738003967115</v>
       </c>
       <c r="D68" t="n">
-        <v>1.689429708617069</v>
+        <v>1.935317535176464</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.68488590222778</v>
+        <v>23.02691428781692</v>
       </c>
       <c r="D69" t="n">
-        <v>1.827600804921578</v>
+        <v>1.793593401842713</v>
       </c>
     </row>
   </sheetData>
